--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\porpora\Desktop\テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B962E71D-51F7-46F3-8BD8-CA41CF4679FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CDC29B7-FDCE-4E4C-8256-0BFA4D00316F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1103" yWindow="720" windowWidth="18637" windowHeight="15480" xr2:uid="{32E7D180-5C46-485E-831C-9BE6EE76847F}"/>
   </bookViews>
@@ -472,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B680329-84D9-4323-9B4C-6644C9982AF8}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
@@ -515,6 +515,62 @@
         <v>150</v>
       </c>
     </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A5" s="1">
+        <v>45630</v>
+      </c>
+      <c r="B5" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A6" s="1">
+        <v>45631</v>
+      </c>
+      <c r="B6" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A7" s="1">
+        <v>45632</v>
+      </c>
+      <c r="B7" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A8" s="1">
+        <v>45633</v>
+      </c>
+      <c r="B8" s="2">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A9" s="1">
+        <v>45634</v>
+      </c>
+      <c r="B9" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A10" s="1">
+        <v>45635</v>
+      </c>
+      <c r="B10" s="2">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A11" s="1">
+        <v>45636</v>
+      </c>
+      <c r="B11" s="2">
+        <v>350</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
